--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>種類</t>
   </si>
@@ -34,13 +34,13 @@
     <t>取得（發生）原因</t>
   </si>
   <si>
-    <t>★車貸</t>
-  </si>
-  <si>
-    <t>★貸款</t>
-  </si>
-  <si>
-    <t>★—般貸款</t>
+    <t>車貸</t>
+  </si>
+  <si>
+    <t>貸款</t>
+  </si>
+  <si>
+    <t>—般貸款</t>
   </si>
   <si>
     <t>陳姿蛉</t>
@@ -52,34 +52,28 @@
     <t>陳姿伶</t>
   </si>
   <si>
-    <t>台新銀行三重分行 新北市三重區正義北路</t>
-  </si>
-  <si>
-    <t>土地銀行台東分行 臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台東縣都蘭農會 臺東縣東河鄉都蘭村都蘭</t>
-  </si>
-  <si>
-    <t>1,848,023</t>
-  </si>
-  <si>
-    <t>99年08月 27日</t>
-  </si>
-  <si>
-    <t>100年07月 01曰</t>
-  </si>
-  <si>
-    <t>96年03月 13曰</t>
-  </si>
-  <si>
-    <t>車貸</t>
+    <t>台新銀行三重分行新北市三重區正義北路</t>
+  </si>
+  <si>
+    <t>土地銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
+  </si>
+  <si>
+    <t>1848023</t>
+  </si>
+  <si>
+    <t>99年08月27日</t>
+  </si>
+  <si>
+    <t>100年07月01曰</t>
+  </si>
+  <si>
+    <t>96年03月13曰</t>
   </si>
   <si>
     <t>信貸</t>
-  </si>
-  <si>
-    <t>—般貸款'</t>
   </si>
 </sst>
 </file>
@@ -484,7 +478,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -507,7 +501,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -530,7 +524,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
@@ -14,36 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>車貸</t>
   </si>
   <si>
+    <t>陳姿蛉</t>
+  </si>
+  <si>
+    <t>台新銀行三重分行新北市三重區正義北路</t>
+  </si>
+  <si>
+    <t>99年08月27日</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
     <t>—般貸款</t>
   </si>
   <si>
-    <t>陳姿蛉</t>
+    <t>信貸</t>
   </si>
   <si>
     <t>廖國棟</t>
@@ -52,9 +43,6 @@
     <t>陳姿伶</t>
   </si>
   <si>
-    <t>台新銀行三重分行新北市三重區正義北路</t>
-  </si>
-  <si>
     <t>土地銀行台東分行臺東縣台東市中華路</t>
   </si>
   <si>
@@ -64,16 +52,10 @@
     <t>1848023</t>
   </si>
   <si>
-    <t>99年08月27日</t>
-  </si>
-  <si>
     <t>100年07月01曰</t>
   </si>
   <si>
     <t>96年03月13曰</t>
-  </si>
-  <si>
-    <t>信貸</t>
   </si>
 </sst>
 </file>
@@ -432,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,83 +430,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
+        <v>305434</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>305434</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>330750</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>330750</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>車貸</t>
   </si>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,47 +442,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>305434</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>330750</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
+++ b/legislator/property/output/normal/廖國棟_2011-11-24_財產申報表_tmp9c8c1.xlsx
@@ -14,48 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
   <si>
     <t>車貸</t>
   </si>
   <si>
+    <t>貸款</t>
+  </si>
+  <si>
+    <t>—般貸款</t>
+  </si>
+  <si>
     <t>陳姿蛉</t>
   </si>
   <si>
+    <t>廖國棟</t>
+  </si>
+  <si>
+    <t>陳姿伶</t>
+  </si>
+  <si>
     <t>台新銀行三重分行新北市三重區正義北路</t>
   </si>
   <si>
+    <t>土地銀行台東分行臺東縣台東市中華路</t>
+  </si>
+  <si>
+    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
+  </si>
+  <si>
     <t>99年08月27日</t>
   </si>
   <si>
-    <t>貸款</t>
-  </si>
-  <si>
-    <t>—般貸款</t>
+    <t>100年07月01曰</t>
+  </si>
+  <si>
+    <t>96年03月13曰</t>
   </si>
   <si>
     <t>信貸</t>
   </si>
   <si>
-    <t>廖國棟</t>
-  </si>
-  <si>
-    <t>陳姿伶</t>
-  </si>
-  <si>
-    <t>土地銀行台東分行臺東縣台東市中華路</t>
-  </si>
-  <si>
-    <t>台東縣都蘭農會臺東縣東河鄉都蘭村都蘭</t>
-  </si>
-  <si>
-    <t>1848023</t>
-  </si>
-  <si>
-    <t>100年07月01曰</t>
-  </si>
-  <si>
-    <t>96年03月13曰</t>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-24</t>
+  </si>
+  <si>
+    <t>tmp9c8c1</t>
   </si>
 </sst>
 </file>
@@ -414,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,83 +478,167 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>305434</v>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
         <v>305434</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2">
+        <v>962</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1848023</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2">
+        <v>962</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2">
         <v>330750</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2">
+        <v>962</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
